--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IdeaProjects\Comfort_soft_task\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED7C6F6-DDF0-4C46-9FF5-9C539B5B4F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C168578-A3F7-469D-91B9-DAE77501165E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,20 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+  <si>
+    <t>фыв</t>
+  </si>
+  <si>
+    <t>афыы</t>
+  </si>
+  <si>
+    <t>ASF</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -337,162 +351,177 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A30"/>
+  <dimension ref="A1:A33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
